--- a/Invoice/Begin Transaction/Main.rvl.xlsx
+++ b/Invoice/Begin Transaction/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="86">
   <si>
     <t>Flow</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>C:\UX365RegressionTest\Invoice\Create Invoice\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Contacts\Create new contact\Main.rvl.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
